--- a/bib.xlsx
+++ b/bib.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fe2ce86b569d50c3/DOTTORATO/Systematic literature review/Review protocol files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1472" documentId="11_1403BFD68F79A8D366075C52F37BD2728A5507DA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B34AEDC-E7B2-471E-8C0C-4381D9549903}"/>
+  <xr:revisionPtr revIDLastSave="1473" documentId="11_1403BFD68F79A8D366075C52F37BD2728A5507DA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7AD9BB8-F746-4178-BC44-35934A7C146C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5747,30 +5747,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -5785,14 +5767,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -6101,13 +6084,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="5" width="23.28515625" customWidth="1"/>
-    <col min="6" max="6" width="64.28515625" customWidth="1"/>
+    <col min="6" max="6" width="64.28515625" style="3" customWidth="1"/>
     <col min="7" max="7" width="21.140625" customWidth="1"/>
     <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="42.42578125" customWidth="1"/>
@@ -6139,7 +6122,7 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>1594</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -6306,7 +6289,7 @@
       <c r="E2" t="s">
         <v>1128</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>1129</v>
       </c>
       <c r="G2" t="s">
@@ -6660,7 +6643,7 @@
       <c r="E5" t="s">
         <v>338</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>339</v>
       </c>
       <c r="G5" t="s">
@@ -6889,7 +6872,7 @@
       <c r="E7" t="s">
         <v>977</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>978</v>
       </c>
       <c r="G7" t="s">
@@ -7103,7 +7086,7 @@
       <c r="E9" t="s">
         <v>1079</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="3" t="s">
         <v>1080</v>
       </c>
       <c r="G9" t="s">
@@ -7219,7 +7202,7 @@
       <c r="E10" t="s">
         <v>910</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>911</v>
       </c>
       <c r="G10" t="s">
@@ -7320,7 +7303,7 @@
       <c r="E11" t="s">
         <v>1111</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="3" t="s">
         <v>1112</v>
       </c>
       <c r="G11" t="s">
@@ -7430,7 +7413,7 @@
       <c r="D12" t="s">
         <v>1180</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>1203</v>
       </c>
       <c r="G12" t="s">
@@ -7522,7 +7505,7 @@
       <c r="D13" t="s">
         <v>1152</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>1202</v>
       </c>
       <c r="G13" t="s">
@@ -7709,7 +7692,7 @@
       <c r="E15" t="s">
         <v>230</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="3" t="s">
         <v>231</v>
       </c>
       <c r="G15" t="s">
@@ -7816,7 +7799,7 @@
       <c r="E16" t="s">
         <v>460</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="3" t="s">
         <v>461</v>
       </c>
       <c r="G16" t="s">
@@ -7917,7 +7900,7 @@
       <c r="E17" t="s">
         <v>863</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="3" t="s">
         <v>864</v>
       </c>
       <c r="G17" t="s">
@@ -8039,7 +8022,7 @@
       <c r="E18" t="s">
         <v>565</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>566</v>
       </c>
       <c r="G18" t="s">
@@ -8149,7 +8132,7 @@
       <c r="D19" t="s">
         <v>1171</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>1197</v>
       </c>
       <c r="G19" t="s">
@@ -8244,7 +8227,7 @@
       <c r="E20" t="s">
         <v>612</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="3" t="s">
         <v>613</v>
       </c>
       <c r="G20" t="s">
@@ -8360,7 +8343,7 @@
       <c r="E21" t="s">
         <v>490</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="3" t="s">
         <v>491</v>
       </c>
       <c r="G21" t="s">
@@ -8589,7 +8572,7 @@
       <c r="D23" t="s">
         <v>1181</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="3" t="s">
         <v>1204</v>
       </c>
       <c r="G23" t="s">
@@ -8681,7 +8664,7 @@
       <c r="D24" t="s">
         <v>1187</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="3" t="s">
         <v>1210</v>
       </c>
       <c r="G24" t="s">
@@ -8996,7 +8979,7 @@
       <c r="E27" t="s">
         <v>128</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="3" t="s">
         <v>129</v>
       </c>
       <c r="G27" t="s">
@@ -9204,7 +9187,7 @@
       <c r="E29" t="s">
         <v>373</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="3" t="s">
         <v>374</v>
       </c>
       <c r="G29" t="s">
@@ -9317,7 +9300,7 @@
       <c r="D30" t="s">
         <v>1196</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="3" t="s">
         <v>1219</v>
       </c>
       <c r="G30" t="s">
@@ -9534,7 +9517,7 @@
       <c r="E32" t="s">
         <v>781</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="3" t="s">
         <v>782</v>
       </c>
       <c r="G32" t="s">
@@ -9641,7 +9624,7 @@
       <c r="E33" t="s">
         <v>847</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="3" t="s">
         <v>848</v>
       </c>
       <c r="G33" t="s">
@@ -10170,7 +10153,7 @@
       <c r="E38" t="s">
         <v>648</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="3" t="s">
         <v>649</v>
       </c>
       <c r="G38" t="s">
@@ -10292,7 +10275,7 @@
       <c r="E39" t="s">
         <v>633</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="3" t="s">
         <v>634</v>
       </c>
       <c r="G39" t="s">
@@ -10411,7 +10394,7 @@
       <c r="D40" t="s">
         <v>1185</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="3" t="s">
         <v>1208</v>
       </c>
       <c r="G40" t="s">
@@ -10506,7 +10489,7 @@
       <c r="E41" t="s">
         <v>1094</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" s="3" t="s">
         <v>1095</v>
       </c>
       <c r="G41" t="s">
@@ -10940,7 +10923,7 @@
       <c r="E45" t="s">
         <v>927</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="3" t="s">
         <v>928</v>
       </c>
       <c r="G45" t="s">
@@ -11133,7 +11116,7 @@
       <c r="E47" t="s">
         <v>893</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F47" s="3" t="s">
         <v>894</v>
       </c>
       <c r="G47" t="s">
@@ -11243,7 +11226,7 @@
       <c r="D48" t="s">
         <v>1188</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F48" s="3" t="s">
         <v>1211</v>
       </c>
       <c r="G48" t="s">
@@ -11338,7 +11321,7 @@
       <c r="E49" t="s">
         <v>763</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F49" s="3" t="s">
         <v>764</v>
       </c>
       <c r="G49" t="s">
@@ -11540,7 +11523,7 @@
       <c r="E51" t="s">
         <v>508</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F51" s="3" t="s">
         <v>509</v>
       </c>
       <c r="G51" t="s">
@@ -11668,7 +11651,7 @@
       <c r="E52" t="s">
         <v>394</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F52" s="3" t="s">
         <v>395</v>
       </c>
       <c r="G52" t="s">
@@ -11790,7 +11773,7 @@
       <c r="E53" t="s">
         <v>431</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F53" s="3" t="s">
         <v>432</v>
       </c>
       <c r="G53" t="s">
@@ -11900,7 +11883,7 @@
       <c r="D54" t="s">
         <v>1177</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F54" s="3" t="s">
         <v>1837</v>
       </c>
       <c r="G54" t="s">
@@ -12087,7 +12070,7 @@
       <c r="E56" t="s">
         <v>731</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="F56" s="3" t="s">
         <v>732</v>
       </c>
       <c r="G56" t="s">
@@ -12206,7 +12189,7 @@
       <c r="E57" t="s">
         <v>830</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="F57" s="3" t="s">
         <v>831</v>
       </c>
       <c r="G57" t="s">
@@ -12328,7 +12311,7 @@
       <c r="E58" t="s">
         <v>667</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="F58" s="3" t="s">
         <v>668</v>
       </c>
       <c r="G58" t="s">
@@ -12435,7 +12418,7 @@
       <c r="E59" t="s">
         <v>1028</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F59" s="3" t="s">
         <v>1029</v>
       </c>
       <c r="G59" t="s">
@@ -12676,7 +12659,7 @@
       <c r="E61" t="s">
         <v>242</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="F61" s="3" t="s">
         <v>243</v>
       </c>
       <c r="G61" t="s">
@@ -12783,7 +12766,7 @@
       <c r="D62" t="s">
         <v>1172</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F62" s="3" t="s">
         <v>1198</v>
       </c>
       <c r="G62" t="s">
@@ -12878,7 +12861,7 @@
       <c r="E63" t="s">
         <v>996</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="F63" s="3" t="s">
         <v>997</v>
       </c>
       <c r="G63" t="s">
@@ -12973,7 +12956,7 @@
       <c r="D64" t="s">
         <v>1189</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="F64" s="3" t="s">
         <v>1212</v>
       </c>
       <c r="G64" t="s">
@@ -13157,7 +13140,7 @@
       <c r="D66" t="s">
         <v>1173</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="F66" s="3" t="s">
         <v>1199</v>
       </c>
       <c r="G66" t="s">
@@ -13252,7 +13235,7 @@
       <c r="E67" t="s">
         <v>798</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="F67" s="3" t="s">
         <v>799</v>
       </c>
       <c r="G67" t="s">
@@ -13484,7 +13467,7 @@
       <c r="E69" t="s">
         <v>355</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="F69" s="3" t="s">
         <v>356</v>
       </c>
       <c r="G69" t="s">
@@ -13594,7 +13577,7 @@
       <c r="D70" t="s">
         <v>1170</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="F70" s="3" t="s">
         <v>1220</v>
       </c>
       <c r="G70" t="s">
@@ -13689,7 +13672,7 @@
       <c r="E71" t="s">
         <v>543</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="F71" s="3" t="s">
         <v>544</v>
       </c>
       <c r="G71" t="s">
@@ -13811,7 +13794,7 @@
       <c r="E72" t="s">
         <v>944</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="F72" s="3" t="s">
         <v>945</v>
       </c>
       <c r="G72" t="s">
@@ -13924,7 +13907,7 @@
       <c r="E73" t="s">
         <v>310</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="F73" s="3" t="s">
         <v>311</v>
       </c>
       <c r="G73" t="s">
@@ -14129,7 +14112,7 @@
       <c r="E75" t="s">
         <v>596</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="F75" s="3" t="s">
         <v>597</v>
       </c>
       <c r="G75" t="s">
@@ -14239,7 +14222,7 @@
       <c r="E76" t="s">
         <v>472</v>
       </c>
-      <c r="F76" s="4" t="s">
+      <c r="F76" s="3" t="s">
         <v>473</v>
       </c>
       <c r="G76" t="s">
@@ -14572,7 +14555,7 @@
       <c r="E79" t="s">
         <v>683</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="F79" s="3" t="s">
         <v>684</v>
       </c>
       <c r="G79" t="s">
@@ -14777,7 +14760,7 @@
       <c r="D81" t="s">
         <v>1190</v>
       </c>
-      <c r="F81" s="4" t="s">
+      <c r="F81" s="3" t="s">
         <v>1213</v>
       </c>
       <c r="G81" t="s">
@@ -14872,7 +14855,7 @@
       <c r="E82" t="s">
         <v>140</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="F82" s="3" t="s">
         <v>141</v>
       </c>
       <c r="G82" t="s">
@@ -14985,7 +14968,7 @@
       <c r="E83" t="s">
         <v>1064</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="F83" s="3" t="s">
         <v>1065</v>
       </c>
       <c r="G83" t="s">
@@ -15095,7 +15078,7 @@
       <c r="D84" t="s">
         <v>1182</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="F84" s="3" t="s">
         <v>1205</v>
       </c>
       <c r="G84" t="s">
@@ -15190,7 +15173,7 @@
       <c r="E85" t="s">
         <v>285</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="F85" s="3" t="s">
         <v>286</v>
       </c>
       <c r="G85" t="s">
@@ -15306,7 +15289,7 @@
       <c r="E86" t="s">
         <v>879</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="F86" s="3" t="s">
         <v>880</v>
       </c>
       <c r="G86" t="s">
@@ -15422,7 +15405,7 @@
       <c r="D87" t="s">
         <v>1175</v>
       </c>
-      <c r="F87" s="4" t="s">
+      <c r="F87" s="3" t="s">
         <v>1200</v>
       </c>
       <c r="G87" t="s">
@@ -15517,7 +15500,7 @@
       <c r="E88" t="s">
         <v>106</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="F88" s="3" t="s">
         <v>107</v>
       </c>
       <c r="G88" t="s">
@@ -15749,7 +15732,7 @@
       <c r="E90" t="s">
         <v>176</v>
       </c>
-      <c r="F90" s="4" t="s">
+      <c r="F90" s="3" t="s">
         <v>177</v>
       </c>
       <c r="G90" t="s">
@@ -15865,7 +15848,7 @@
       <c r="E91" t="s">
         <v>272</v>
       </c>
-      <c r="F91" s="2" t="s">
+      <c r="F91" s="3" t="s">
         <v>273</v>
       </c>
       <c r="G91" t="s">
@@ -15951,7 +15934,7 @@
       <c r="D92" t="s">
         <v>1183</v>
       </c>
-      <c r="F92" s="2" t="s">
+      <c r="F92" s="3" t="s">
         <v>1206</v>
       </c>
       <c r="G92" t="s">
@@ -16043,7 +16026,7 @@
       <c r="D93" t="s">
         <v>1193</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="F93" s="3" t="s">
         <v>1216</v>
       </c>
       <c r="G93" t="s">
@@ -16138,7 +16121,7 @@
       <c r="E94" t="s">
         <v>817</v>
       </c>
-      <c r="F94" s="2" t="s">
+      <c r="F94" s="3" t="s">
         <v>818</v>
       </c>
       <c r="G94" t="s">
